--- a/BTTuan6/BaoCaoKT.xlsx
+++ b/BTTuan6/BaoCaoKT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\BTTuan6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4A1BC-ED58-48C1-B12D-D78CA0F765B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED583A5-4079-41F9-BCCB-AC2AD59233CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{1681B432-FB50-4A4A-80DB-0DA80F94EE2F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="249">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -809,6 +809,151 @@
   </si>
   <si>
     <t>Xnom (điểm giữa) = 50 ký tự</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xmin = 1 (độ dài tối thiểu khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unit Id)</t>
+    </r>
+  </si>
+  <si>
+    <t>Xmax = 20 (độ dài tối đa cho Unit Id)</t>
+  </si>
+  <si>
+    <t>Trường Tên</t>
+  </si>
+  <si>
+    <t>Trường Unit ID</t>
+  </si>
+  <si>
+    <t>Trường Mô tả</t>
+  </si>
+  <si>
+    <r>
+      <t>Xmin - 1 = 0 ký tự (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unit Id)</t>
+    </r>
+  </si>
+  <si>
+    <t>Xmax - 1 = 19 ký tự</t>
+  </si>
+  <si>
+    <t>Xmax = 20 ký tự</t>
+  </si>
+  <si>
+    <t>Xmax + 1 = 21 ký tự</t>
+  </si>
+  <si>
+    <t>Xnom (điểm giữa) = 10 ký tự</t>
+  </si>
+  <si>
+    <t>Xmin = 0 (có thể rỗng)</t>
+  </si>
+  <si>
+    <t>Xmax = 255 (độ dài tối đa cho Description)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model có đủ 3 trường: unitId, name, description. Getter/Setter hoạt động đúng	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw IllegalArgumentException: "Name is required!", không lưu DB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, name="A", DB có record mới	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, name.length()=100, DB lưu đúng	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw IllegalArgumentException: "Name must not exceed 100 characters!", không lưu DB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, unitId=null, DB insert với unitId=null	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, unitId="A", name="Dept 02"	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, unitId.length()=20	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw IllegalArgumentException: "Unit Id must not exceed 20 characters!", không lưu DB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw IllegalArgumentException: "Unit Id can only contain letters, numbers and underscores!", không lưu DB	</t>
+  </si>
+  <si>
+    <t>Throw IllegalArgumentException: "Organization unit with this Unit Id already exists!", không lưu DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit được tạo thành công, description.length()=255	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw IllegalArgumentException: "Description must not exceed 255 characters!", không lưu DB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dữ liệu không được gọi save(), getOrganizationUnitById("OU_09") trả về null	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw SQLException: "Database connection failed!", không insert DB	</t>
+  </si>
+  <si>
+    <t>Xmin = 0 ký tự</t>
+  </si>
+  <si>
+    <t>Xmin + 1 = 1 ký tự</t>
+  </si>
+  <si>
+    <t>Xmax - 1 = 254 ký tự</t>
+  </si>
+  <si>
+    <t>Xmax = 255 ký tự</t>
+  </si>
+  <si>
+    <t>Xmax + 1 = 256 ký tự</t>
+  </si>
+  <si>
+    <t>Xnom (điểm giữa) = 128 ký tự</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1059,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1653,11 +1798,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1666,15 +1824,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1682,15 +1831,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1708,106 +1848,244 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,7 +2096,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,124 +2122,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2309,365 +2470,365 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="56">
         <v>46056</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="33">
+      <c r="F13" s="16">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="55" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="F20:G20"/>
@@ -2684,6 +2845,11 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
@@ -2693,11 +2859,6 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="G12:K12"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:K9"/>
   </mergeCells>
@@ -2738,393 +2899,401 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="56">
         <v>46049</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="33">
+      <c r="F13" s="16">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="55" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
     </row>
     <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="97" t="s">
+      <c r="F23" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="29"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:K23"/>
@@ -3134,6 +3303,13 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:K18"/>
@@ -3143,21 +3319,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3196,330 +3357,332 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
         <v>46049</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:K21"/>
@@ -3529,6 +3692,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
@@ -3540,13 +3708,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3556,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E569383-D311-4729-ADD8-3629D380B66C}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3566,6 +3727,7 @@
     <col min="4" max="4" width="24.54296875" customWidth="1"/>
     <col min="5" max="5" width="26.6328125" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
     <col min="14" max="14" width="12.6328125" customWidth="1"/>
     <col min="16" max="16" width="18.453125" customWidth="1"/>
     <col min="17" max="17" width="21.453125" customWidth="1"/>
@@ -3585,731 +3747,851 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="56">
         <v>46049</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="44" t="s">
         <v>208</v>
       </c>
+      <c r="D16" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="45" t="s">
         <v>209</v>
       </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="N18" s="115"/>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="45" t="s">
         <v>211</v>
       </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="45" t="s">
         <v>212</v>
       </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="45" t="s">
         <v>213</v>
       </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="45" t="s">
         <v>214</v>
       </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="45" t="s">
         <v>215</v>
       </c>
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="115"/>
+      <c r="A24" s="45"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="98" t="s">
+      <c r="C27" s="85"/>
+      <c r="D27" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="45" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="M27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-    </row>
-    <row r="28" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="107" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="106" t="s">
+      <c r="C28" s="83"/>
+      <c r="D28" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="97"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="28" t="s">
+      <c r="F28" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="29"/>
-      <c r="M28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="M28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
     </row>
     <row r="29" spans="1:18" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="106" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="97"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="28" t="s">
+      <c r="F29" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="29"/>
-      <c r="M29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="M29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
     </row>
     <row r="30" spans="1:18" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="106" t="s">
+      <c r="C30" s="83"/>
+      <c r="D30" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="28" t="s">
+      <c r="F30" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="29"/>
-      <c r="M30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="M30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="106" t="s">
+      <c r="C31" s="83"/>
+      <c r="D31" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="28" t="s">
+      <c r="F31" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="29"/>
-      <c r="M31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
+      <c r="M31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
     </row>
     <row r="32" spans="1:18" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="106" t="s">
+      <c r="C32" s="83"/>
+      <c r="D32" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="106" t="s">
+      <c r="E32" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="28" t="s">
+      <c r="F32" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="29"/>
-      <c r="M32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-    </row>
-    <row r="33" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
+      <c r="M32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+    </row>
+    <row r="33" spans="1:18" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="97"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="28" t="s">
+      <c r="F33" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="29"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-    </row>
-    <row r="34" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="52"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+    </row>
+    <row r="34" spans="1:18" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="106" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="28" t="s">
+      <c r="F34" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="29"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-    </row>
-    <row r="35" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="52"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="106" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="106" t="s">
+      <c r="E35" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="29"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-    </row>
-    <row r="36" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="106" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="106" t="s">
+      <c r="E36" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="97"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="29"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-    </row>
-    <row r="37" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="106" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="28" t="s">
+      <c r="F37" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="29"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-    </row>
-    <row r="38" spans="1:18" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="106" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="106" t="s">
+      <c r="E38" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="28" t="s">
+      <c r="F38" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="29"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-    </row>
-    <row r="39" spans="1:18" ht="87" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="106" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="106" t="s">
+      <c r="E39" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F39" s="97"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="28" t="s">
+      <c r="F39" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="29"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-    </row>
-    <row r="40" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="52"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="106" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="28" t="s">
+      <c r="F40" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="29"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-    </row>
-    <row r="41" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="52"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="106" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="106" t="s">
+      <c r="E41" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="97"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="28" t="s">
+      <c r="F41" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="29"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="52"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
     </row>
     <row r="42" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="106" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E42" s="106" t="s">
+      <c r="E42" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="97"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="28" t="s">
+      <c r="F42" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="29"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-    </row>
-    <row r="43" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="52"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="106" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="106" t="s">
+      <c r="E43" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="28" t="s">
+      <c r="F43" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="29"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="52"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -4326,46 +4608,25 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:K40"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4402,349 +4663,374 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
         <v>46049</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50">
+      <c r="C17" s="47"/>
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="22">
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="66">
         <v>1</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54">
+      <c r="C18" s="47"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="66">
         <v>1</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="54">
+      <c r="C19" s="47"/>
+      <c r="D19" s="23">
         <v>5</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="22">
         <v>120</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="66">
         <v>120</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="54">
+      <c r="C20" s="47"/>
+      <c r="D20" s="23">
         <v>-1</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:K22"/>
@@ -4754,31 +5040,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4817,349 +5078,369 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="56">
         <v>46049</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="52"/>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="F10" s="27">
+      <c r="C10" s="52"/>
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="F11" s="27">
+      <c r="C11" s="52"/>
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="F12" s="33">
+      <c r="C12" s="70"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50">
+      <c r="C17" s="47"/>
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="22">
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="66">
         <v>1</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54">
+      <c r="C18" s="47"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="66">
         <v>1</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="54">
+      <c r="C19" s="47"/>
+      <c r="D19" s="23">
         <v>5</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="22">
         <v>120</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="66">
         <v>120</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="54">
+      <c r="C20" s="47"/>
+      <c r="D20" s="23">
         <v>-1</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:K22"/>
@@ -5176,26 +5457,6 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5218,341 +5479,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69">
+      <c r="B3" s="111"/>
+      <c r="C3" s="112">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="78">
+      <c r="C6" s="93"/>
+      <c r="D6" s="26">
         <v>0.67</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="H6" s="79" t="s">
+      <c r="E6" s="26"/>
+      <c r="H6" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="78">
+      <c r="C7" s="93"/>
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:24" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="82" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="84"/>
+      <c r="X9" s="30"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="85">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="87"/>
-      <c r="D10" s="54">
+      <c r="D10" s="23">
         <v>3</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="23">
         <v>3</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="23">
         <v>0</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="23">
         <v>0</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="23">
         <v>0</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="23">
         <v>3</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="32">
         <v>1</v>
       </c>
-      <c r="X10" s="84"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="85">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="87"/>
-      <c r="D11" s="54">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="23">
         <v>1</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="23">
         <v>0</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="23">
         <v>0</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="23">
         <v>1</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="32">
         <v>1</v>
       </c>
-      <c r="X11" s="84"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="85">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="87"/>
-      <c r="D12" s="54">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="23">
         <v>1</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="23">
         <v>0</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="23">
         <v>0</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="23">
         <v>0</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="23">
         <v>0</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="23">
         <v>1</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="32">
         <v>1</v>
       </c>
-      <c r="X12" s="84"/>
+      <c r="X12" s="30"/>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="85">
+      <c r="A13" s="31">
         <v>4</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="87"/>
-      <c r="D13" s="54">
+      <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="23">
         <v>0</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="23">
         <v>0</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="23">
         <v>0</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="23">
         <v>1</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="95">
+      <c r="C15" s="93"/>
+      <c r="D15" s="34">
         <f t="shared" ref="D15:J15" si="0">SUM(D10:D13)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="35">
         <f>67%</f>
         <v>0.67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
